--- a/UAS_SPK_G.211.20.0068.xlsx
+++ b/UAS_SPK_G.211.20.0068.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leviathan\Kuliah\SMT 6\SPK\Praktik\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EB598F-7EC5-40A5-A60C-D9BFA370486F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B68868-442A-4DDA-97C9-647E3BC29AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E535B5FC-9FA9-45B2-A65F-009F8D23A8C9}"/>
   </bookViews>
@@ -437,10 +437,22 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -449,23 +461,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -785,7 +785,7 @@
   <dimension ref="B2:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,13 +795,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -825,10 +825,10 @@
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="20"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -849,10 +849,10 @@
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -873,10 +873,10 @@
       <c r="H5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -897,10 +897,10 @@
       <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -920,36 +920,36 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="C10" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19" t="s">
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
@@ -1155,11 +1155,11 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -1174,58 +1174,58 @@
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
-        <f>SUM(C12:C15)</f>
-        <v>2.25</v>
+        <f>SUM(C12,F12,I12,L12)</f>
+        <v>4.5</v>
       </c>
       <c r="C19" s="10">
-        <f>SUM(D12:D15)</f>
-        <v>2.6196999999999999</v>
+        <f>SUM(D12,G12,J12,M12)</f>
+        <v>6</v>
       </c>
       <c r="D19" s="10">
-        <f>SUM(E12:E15)</f>
-        <v>3.3330000000000002</v>
+        <f>SUM(E12,H12,K12,N12)</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
-        <f>SUM(F12:F15)</f>
-        <v>4.1669999999999998</v>
+        <f>SUM(C13,F13,I13,L13)</f>
+        <v>5.5</v>
       </c>
       <c r="C20" s="10">
-        <f>SUM(G12:G15)</f>
-        <v>5.1669999999999998</v>
+        <f t="shared" ref="C20:C22" si="0">SUM(D13,G13,J13,M13)</f>
+        <v>6.6669999999999998</v>
       </c>
       <c r="D20" s="10">
-        <f>SUM(H12:H15)</f>
-        <v>7</v>
+        <f t="shared" ref="D20:D22" si="1">SUM(E13,H13,K13,N13)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
-        <f>SUM(I12:I15)</f>
-        <v>2.8330000000000002</v>
+        <f>SUM(C14,F14,I14,L14)</f>
+        <v>2.75</v>
       </c>
       <c r="C21" s="10">
-        <f>SUM(J12:J15)</f>
-        <v>3.9</v>
+        <f t="shared" si="0"/>
+        <v>3.4527000000000001</v>
       </c>
       <c r="D21" s="10">
-        <f>SUM(K12:K15)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4.3330000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
-        <f>SUM(L12:L15)</f>
-        <v>6</v>
+        <f>SUM(C15,F15,I15,L15)</f>
+        <v>2.5</v>
       </c>
       <c r="C22" s="10">
-        <f>SUM(M12:M15)</f>
-        <v>7.5</v>
+        <f t="shared" si="0"/>
+        <v>3.0670000000000002</v>
       </c>
       <c r="D22" s="10">
-        <f>SUM(N12:N15)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1243,12 +1243,12 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
@@ -1268,15 +1268,15 @@
       </c>
       <c r="C27" s="10">
         <f>B19*1/$D$23</f>
-        <v>9.2467020096165711E-2</v>
+        <v>0.18493404019233142</v>
       </c>
       <c r="D27" s="10">
         <f>C19*1/C$23</f>
-        <v>0.13653728885113123</v>
+        <v>0.31271662140962225</v>
       </c>
       <c r="E27" s="10">
         <f>D19*1/B$23</f>
-        <v>0.21855737704918035</v>
+        <v>0.49180327868852458</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1285,15 +1285,15 @@
       </c>
       <c r="C28" s="10">
         <f>B20*1/$D$23</f>
-        <v>0.17124892121809887</v>
+        <v>0.22603049356840507</v>
       </c>
       <c r="D28" s="10">
         <f>C20*1/C$23</f>
-        <v>0.26930113047058635</v>
+        <v>0.34748028582299195</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" ref="E28:E30" si="0">D20*1/B$23</f>
-        <v>0.45901639344262296</v>
+        <f>D20*1/B$23</f>
+        <v>0.52459016393442626</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1302,15 +1302,15 @@
       </c>
       <c r="C29" s="10">
         <f>B21*1/$D$23</f>
-        <v>0.11642625241441665</v>
+        <v>0.11301524678420254</v>
       </c>
       <c r="D29" s="10">
         <f>C21*1/C$23</f>
-        <v>0.20326580391625446</v>
+        <v>0.17995277979016713</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>0.32786885245901637</v>
+        <f>D21*1/B$23</f>
+        <v>0.28413114754098362</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1319,27 +1319,27 @@
       </c>
       <c r="C30" s="10">
         <f>B22*1/$D$23</f>
-        <v>0.2465787202564419</v>
+        <v>0.10274113344018412</v>
       </c>
       <c r="D30" s="10">
         <f>C22*1/C$23</f>
-        <v>0.3908957767620278</v>
+        <v>0.15985031297721858</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>0.5901639344262295</v>
+        <f>D22*1/B$23</f>
+        <v>0.29508196721311475</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
@@ -1351,7 +1351,7 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="1"/>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C35" s="12">
         <f>IF($D$27&gt;=D28,1,IF($C$27&gt;=E28,0,$C$27-E28/(D28-E28)-($D$27-$C$27)))</f>
-        <v>2.4678984100468595</v>
+        <v>3.019098977251597</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1373,8 +1373,8 @@
         <v>23</v>
       </c>
       <c r="C36" s="10">
-        <f t="shared" ref="C36:C37" si="1">IF($D$27&gt;=D29,1,IF($C$27&gt;=E29,0,$C$27-E29/(D29-E29)-($D$27-$C$27)))</f>
-        <v>2.6797035796528417</v>
+        <f>IF($D$27&gt;=D29,1,IF($C$27&gt;=E29,0,$C$27-E29/(D29-E29)-($D$27-$C$27)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1382,8 +1382,8 @@
         <v>24</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" si="1"/>
-        <v>3.010053753363314</v>
+        <f>IF($D$27&gt;=D30,1,IF($C$27&gt;=E30,0,$C$27-E30/(D30-E30)-($D$27-$C$27)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C38" s="10">
         <f>MIN(C35:C37)</f>
-        <v>2.4678984100468595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C43" s="10">
         <f>IF($D$28&gt;=D30,1,IF($C$28&gt;=E30,0,$C$28-E30/(D30-E30)-($D$28-$C$28)))</f>
-        <v>3.0348537139877254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C47" s="10">
         <f>IF($D$29&gt;=D27,1,IF($C$29&gt;=E27,0,$C$29-E27/(D27-E27)-($D$29-$C$29)))</f>
-        <v>1</v>
+        <v>2.7922525888981085</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1465,8 +1465,8 @@
         <v>33</v>
       </c>
       <c r="C48" s="10">
-        <f t="shared" ref="C48" si="2">IF($D$29&gt;=D28,1,IF($C$29&gt;=E28,0,$C$29-E28/(D28-E28)-($D$29-$C$29)))</f>
-        <v>2.449088359618238</v>
+        <f>IF($D$29&gt;=D28,1,IF($C$29&gt;=E28,0,$C$29-E28/(D28-E28)-($D$29-$C$29)))</f>
+        <v>3.0080252320547949</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C49" s="10">
         <f>IF($D$29&gt;=D30,1,IF($C$29&gt;=E30,0,$C$29-E30/(D30-E30)-($D$29-$C$29)))</f>
-        <v>2.9912437029346925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C53" s="10">
         <f>IF($D$30&gt;=D27,1,IF($C$30&gt;=E27,0,$C$30-E27/(D27-E27)-($D$30-$C$30)))</f>
-        <v>1</v>
+        <v>2.7918068290230198</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1511,8 +1511,8 @@
         <v>38</v>
       </c>
       <c r="C54" s="10">
-        <f t="shared" ref="C54:C55" si="3">IF($D$30&gt;=D28,1,IF($C$30&gt;=E28,0,$C$30-E28/(D28-E28)-($D$30-$C$30)))</f>
-        <v>1</v>
+        <f t="shared" ref="C54:C55" si="2">IF($D$30&gt;=D28,1,IF($C$30&gt;=E28,0,$C$30-E28/(D28-E28)-($D$30-$C$30)))</f>
+        <v>3.0075794721797062</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1520,8 +1520,8 @@
         <v>39</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.7729846056609015</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1530,16 +1530,16 @@
       </c>
       <c r="C56" s="10">
         <f>MIN(C53:C55)</f>
-        <v>1</v>
+        <v>2.7729846056609015</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
@@ -1548,15 +1548,15 @@
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="14">
         <f>SUM(C38,C44,C50,C56)</f>
-        <v>5.4678984100468595</v>
+        <v>5.772984605660902</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C62" s="16">
         <f>C38</f>
-        <v>2.4678984100468595</v>
+        <v>1</v>
       </c>
       <c r="D62" s="16">
         <f>C44</f>
@@ -1587,11 +1587,11 @@
       </c>
       <c r="F62" s="16">
         <f>C56</f>
-        <v>1</v>
+        <v>2.7729846056609015</v>
       </c>
       <c r="G62" s="10">
         <f>SUM(C62:F62)</f>
-        <v>5.4678984100468595</v>
+        <v>5.772984605660902</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1600,19 +1600,19 @@
       </c>
       <c r="C63" s="10">
         <f>(C38/F60)</f>
-        <v>0.45134313496247086</v>
+        <v>0.17322062473879024</v>
       </c>
       <c r="D63" s="10">
         <f>(C44/F60)</f>
-        <v>0.18288562167917638</v>
+        <v>0.17322062473879024</v>
       </c>
       <c r="E63" s="10">
         <f>(C50/F60)</f>
-        <v>0.18288562167917638</v>
+        <v>0.17322062473879024</v>
       </c>
       <c r="F63" s="10">
         <f>(C56/F60)</f>
-        <v>0.18288562167917638</v>
+        <v>0.48033812578362922</v>
       </c>
       <c r="G63" s="10">
         <f>SUM(C63:F63)</f>
@@ -1623,51 +1623,51 @@
       <c r="B65" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
@@ -1767,10 +1767,10 @@
       <c r="E77" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="25" t="s">
+      <c r="G77" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1780,23 +1780,23 @@
       </c>
       <c r="C78" s="10">
         <f>C$63/C72</f>
-        <v>0.15044771165415696</v>
+        <v>5.7740208246263414E-2</v>
       </c>
       <c r="D78" s="10">
         <f>D$63/D72</f>
-        <v>6.0961873893058793E-2</v>
+        <v>5.7740208246263414E-2</v>
       </c>
       <c r="E78" s="10">
         <f>E$63/E72</f>
-        <v>9.144281083958819E-2</v>
-      </c>
-      <c r="F78" s="24">
+        <v>8.661031236939512E-2</v>
+      </c>
+      <c r="F78" s="18">
         <f>F$63/F72</f>
-        <v>9.144281083958819E-2</v>
-      </c>
-      <c r="G78" s="26">
+        <v>0.24016906289181461</v>
+      </c>
+      <c r="G78" s="20">
         <f>SUM(C78:F78)</f>
-        <v>0.39429520722639211</v>
+        <v>0.44225979175373653</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1804,24 +1804,24 @@
         <v>49</v>
       </c>
       <c r="C79" s="10">
-        <f t="shared" ref="C79:C81" si="4">$C$63/C73</f>
-        <v>9.0268626992494175E-2</v>
+        <f t="shared" ref="C79:C81" si="3">$C$63/C73</f>
+        <v>3.4644124947758051E-2</v>
       </c>
       <c r="D79" s="10">
-        <f t="shared" ref="D79:F81" si="5">D$63/D73</f>
-        <v>6.0961873893058793E-2</v>
+        <f t="shared" ref="D79:F81" si="4">D$63/D73</f>
+        <v>5.7740208246263414E-2</v>
       </c>
       <c r="E79" s="10">
-        <f t="shared" si="5"/>
-        <v>9.144281083958819E-2</v>
-      </c>
-      <c r="F79" s="24">
-        <f t="shared" si="5"/>
-        <v>9.144281083958819E-2</v>
-      </c>
-      <c r="G79" s="26">
-        <f t="shared" ref="G79:G81" si="6">SUM(C79:F79)</f>
-        <v>0.33411612256472933</v>
+        <f t="shared" si="4"/>
+        <v>8.661031236939512E-2</v>
+      </c>
+      <c r="F79" s="18">
+        <f t="shared" si="4"/>
+        <v>0.24016906289181461</v>
+      </c>
+      <c r="G79" s="20">
+        <f t="shared" ref="G79" si="5">SUM(C79:F79)</f>
+        <v>0.41916370845523121</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1829,24 +1829,24 @@
         <v>50</v>
       </c>
       <c r="C80" s="10">
+        <f t="shared" si="3"/>
+        <v>0.17322062473879024</v>
+      </c>
+      <c r="D80" s="10">
         <f t="shared" si="4"/>
-        <v>0.45134313496247086</v>
-      </c>
-      <c r="D80" s="10">
-        <f t="shared" si="5"/>
-        <v>0.18288562167917638</v>
+        <v>0.17322062473879024</v>
       </c>
       <c r="E80" s="10">
-        <f t="shared" si="5"/>
-        <v>6.0961873893058793E-2</v>
-      </c>
-      <c r="F80" s="24">
-        <f t="shared" si="5"/>
-        <v>0.18288562167917638</v>
-      </c>
-      <c r="G80" s="26">
+        <f t="shared" si="4"/>
+        <v>5.7740208246263414E-2</v>
+      </c>
+      <c r="F80" s="18">
+        <f t="shared" si="4"/>
+        <v>0.48033812578362922</v>
+      </c>
+      <c r="G80" s="20">
         <f>SUM(C80:F80)</f>
-        <v>0.8780762522138823</v>
+        <v>0.88451958350747306</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1854,137 +1854,133 @@
         <v>51</v>
       </c>
       <c r="C81" s="10">
+        <f t="shared" si="3"/>
+        <v>8.661031236939512E-2</v>
+      </c>
+      <c r="D81" s="10">
         <f t="shared" si="4"/>
-        <v>0.22567156748123543</v>
-      </c>
-      <c r="D81" s="10">
-        <f t="shared" si="5"/>
-        <v>0.18288562167917638</v>
+        <v>0.17322062473879024</v>
       </c>
       <c r="E81" s="10">
-        <f t="shared" si="5"/>
-        <v>6.0961873893058793E-2</v>
-      </c>
-      <c r="F81" s="24">
-        <f t="shared" si="5"/>
-        <v>0.18288562167917638</v>
-      </c>
-      <c r="G81" s="26">
+        <f t="shared" si="4"/>
+        <v>5.7740208246263414E-2</v>
+      </c>
+      <c r="F81" s="18">
+        <f t="shared" si="4"/>
+        <v>0.48033812578362922</v>
+      </c>
+      <c r="G81" s="20">
         <f>SUM(C81:F81)</f>
-        <v>0.65240468473264701</v>
+        <v>0.79790927113807797</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="29" t="s">
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="27">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="21">
         <f>G78</f>
-        <v>0.39429520722639211</v>
-      </c>
-      <c r="G84" s="27">
+        <v>0.44225979175373653</v>
+      </c>
+      <c r="G84" s="21">
         <f>_xlfn.RANK.AVG(F84,$F$84:$F$87,)</f>
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="27">
-        <f t="shared" ref="F85:F87" si="7">G79</f>
-        <v>0.33411612256472933</v>
-      </c>
-      <c r="G85" s="27">
-        <f t="shared" ref="G85:G87" si="8">_xlfn.RANK.AVG(F85,$F$84:$F$87,)</f>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="21">
+        <f t="shared" ref="F85:F87" si="6">G79</f>
+        <v>0.41916370845523121</v>
+      </c>
+      <c r="G85" s="21">
+        <f t="shared" ref="G85:G87" si="7">_xlfn.RANK.AVG(F85,$F$84:$F$87,)</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="27">
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="21">
+        <f t="shared" si="6"/>
+        <v>0.88451958350747306</v>
+      </c>
+      <c r="G86" s="21">
         <f t="shared" si="7"/>
-        <v>0.8780762522138823</v>
-      </c>
-      <c r="G86" s="27">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="27">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="21">
+        <f t="shared" si="6"/>
+        <v>0.79790927113807797</v>
+      </c>
+      <c r="G87" s="21">
         <f t="shared" si="7"/>
-        <v>0.65240468473264701</v>
-      </c>
-      <c r="G87" s="27">
-        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B2:F2"/>
@@ -1993,13 +1989,17 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
